--- a/AFR-1000/AFR-1000/SAMD51P20A Pinout.xlsx
+++ b/AFR-1000/AFR-1000/SAMD51P20A Pinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24780" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="230">
   <si>
     <t>PA00</t>
   </si>
@@ -694,13 +694,28 @@
   </si>
   <si>
     <t>PWM</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,13 +723,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -729,8 +762,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,41 +1324,44 @@
       <c r="B21">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="B22">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>224</v>
@@ -1330,68 +1369,83 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>224</v>
@@ -1399,79 +1453,97 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>217</v>
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B32">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
+        <v>85</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>224</v>
@@ -1479,123 +1551,153 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B42">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B43">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B44">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>196</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B45">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="B47">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B48">
-        <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>196</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D48" t="s">
         <v>224</v>
@@ -1611,6 +1713,9 @@
       <c r="C49" t="s">
         <v>191</v>
       </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1622,6 +1727,9 @@
       <c r="C50" t="s">
         <v>190</v>
       </c>
+      <c r="D50" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1655,6 +1763,9 @@
       <c r="C53" t="s">
         <v>186</v>
       </c>
+      <c r="D53" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1789,7 +1900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -1800,7 +1911,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -1811,29 +1922,29 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67">
         <v>42</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
       <c r="B68">
         <v>41</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -1844,7 +1955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -1855,7 +1966,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -1866,7 +1977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1877,544 +1988,544 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>127</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B76">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="B77">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B78">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B79">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B81">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B82">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B84">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>116</v>
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="B89">
-        <v>34</v>
-      </c>
-      <c r="E89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="B90">
-        <v>35</v>
-      </c>
-      <c r="E90" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B92">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B93">
-        <v>95</v>
-      </c>
-      <c r="E93" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B94">
-        <v>113</v>
-      </c>
-      <c r="E94" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B95">
-        <v>119</v>
-      </c>
-      <c r="E95" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B96">
-        <v>120</v>
-      </c>
-      <c r="E96" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="B97">
-        <v>39</v>
-      </c>
-      <c r="E97" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B98">
-        <v>40</v>
-      </c>
-      <c r="E98" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B99">
-        <v>102</v>
-      </c>
-      <c r="E99" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B100">
-        <v>103</v>
-      </c>
-      <c r="E100" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B101">
-        <v>104</v>
-      </c>
-      <c r="E101" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B102">
-        <v>105</v>
-      </c>
-      <c r="E102" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E103" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B104">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B105">
-        <v>108</v>
-      </c>
-      <c r="E105" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B106">
-        <v>109</v>
-      </c>
-      <c r="E106" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="B107">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B108">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B109">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B110">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B111">
-        <v>124</v>
-      </c>
-      <c r="E111" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B112">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B114">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="E114" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="E115" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B116">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="E116" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B117">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="E117" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="B118">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="E118" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B119">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B120">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B121">
-        <v>65</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B122">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B123">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="B124">
-        <v>97</v>
+        <v>119</v>
+      </c>
+      <c r="E124" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="B125">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="E125" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B126">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="E126" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B127">
-        <v>32</v>
+        <v>122</v>
+      </c>
+      <c r="E127" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B128">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E128" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B129">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="E129" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2424,6 +2535,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
